--- a/biology/Zoologie/Chrysomela/Chrysomela.xlsx
+++ b/biology/Zoologie/Chrysomela/Chrysomela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chrysomela regroupe des espèces d'insectes coléoptères de la famille des Chrysomelidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 janv. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 janv. 2015) :
 sous-genre Chrysomela (Chrysomela) Linnaeus, 1758
 sous-genre Chrysomela (Macrolina) Motschulsky, 1839
 sous-genre Chrysomela (Pachylina) Medvedev in Medvedev et Chernov, 1969</t>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2019) :
 Chrysomela aeneicollis (Schaeffer, 1928)
 Chrysomela blaisdelli (Van Dyke, 1938)
 Chrysomela calami Heer, 1847 †
@@ -578,7 +594,7 @@
 Chrysomela vesperalis Scudder, 1900 †
 Chrysomela walshi Brown, 1956
 Chrysomela wetteravica von Heyden, 1862 †
-Selon NCBI  (4 octobre 2019)[3] :
+Selon NCBI  (4 octobre 2019) :
 Chrysomela aeneicollis
 Chrysomela collaris
 Chrysomela confluens
@@ -600,10 +616,45 @@
 Chrysomela tremula Fabricius, 1787
 Chrysomela vigintipunctata (Scopoli, 1763)
 Chrysomela walshi
-Taxons fossiles
-Taxons fossiles selon (en) Référence Paleobiology Database : Chrysomela  Linnaeus 1758 (consulté le 4 octobre 2019) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chrysomela</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysomela</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taxons fossiles selon (en) Référence Paleobiology Database : Chrysomela  Linnaeus 1758 (consulté le 4 octobre 2019) :
 †Chrysomela calami Heer, 1847
-†Chrysomela ceresti Théobald 1937[4] trouvé à Céreste (Nancy collection)
+†Chrysomela ceresti Théobald 1937 trouvé à Céreste (Nancy collection)
 †Chrysomela debilis Oustalet, 1874
 †Chrysomela hilberi Lomnicki, 1894
 †Chrysomela lichenis Richter, 1820
